--- a/results/comparaison/GM/diattenuation/median_raw_data.xlsx
+++ b/results/comparaison/GM/diattenuation/median_raw_data.xlsx
@@ -679,716 +679,830 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.0309393023084683</v>
+      </c>
+      <c r="C2">
+        <v>0.0184464363777566</v>
+      </c>
+      <c r="D2">
+        <v>0.0218891924181757</v>
+      </c>
+      <c r="E2">
         <v>0.0226133358241501</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>0.0325282070179744</v>
+      </c>
+      <c r="G2">
+        <v>0.0272633348240156</v>
+      </c>
+      <c r="H2">
+        <v>0.0346077652998081</v>
+      </c>
+      <c r="I2">
+        <v>0.0151946094435263</v>
+      </c>
+      <c r="J2">
         <v>0.0318842611592978</v>
       </c>
-      <c r="D2">
-        <v>0.0309905746120287</v>
-      </c>
-      <c r="E2">
-        <v>0.0384287736728516</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
         <v>0.0334916248041661</v>
       </c>
-      <c r="G2">
-        <v>0.0265903114583718</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>0.032911918259338</v>
+      </c>
+      <c r="M2">
+        <v>0.0380763172252146</v>
+      </c>
+      <c r="N2">
         <v>0.0203777806491265</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>0.0262978089731493</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>0.0294137903131974</v>
       </c>
-      <c r="K2">
-        <v>0.0314798775213012</v>
-      </c>
-      <c r="L2">
-        <v>0.0304344783821979</v>
-      </c>
-      <c r="M2">
-        <v>0.0325282070179744</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0.0215790780833171</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>0.0219674538971211</v>
       </c>
-      <c r="P2">
-        <v>0.0347725103011546</v>
-      </c>
-      <c r="Q2">
-        <v>0.0339732389211408</v>
-      </c>
-      <c r="R2">
-        <v>0.03438508705152</v>
-      </c>
       <c r="S2">
-        <v>0.0204312336446024</v>
+        <v>0.0318793291883656</v>
       </c>
       <c r="T2">
-        <v>0.0281310558046199</v>
+        <v>0.0143056069765327</v>
       </c>
       <c r="U2">
-        <v>0.0272633348240156</v>
+        <v>0.0265289116180488</v>
       </c>
       <c r="V2">
-        <v>0.0201251877296596</v>
+        <v>0.0254639262082906</v>
       </c>
       <c r="W2">
-        <v>0.0316311814999613</v>
+        <v>0.024167178022478</v>
       </c>
       <c r="X2">
-        <v>0.0346077652998081</v>
+        <v>0.0266511550988809</v>
       </c>
       <c r="Y2">
-        <v>0.0336984449837711</v>
+        <v>0.0355421472821275</v>
       </c>
       <c r="Z2">
-        <v>0.0151946094435263</v>
+        <v>0.0329201327886829</v>
       </c>
       <c r="AA2">
-        <v>0.028216934600337</v>
+        <v>0.0139869596607688</v>
       </c>
       <c r="AB2">
-        <v>0.0253980883979581</v>
+        <v>0.0153320901468324</v>
       </c>
       <c r="AC2">
-        <v>0.029627347909231</v>
+        <v>0.0205086503055378</v>
       </c>
       <c r="AD2">
-        <v>0.0199135863758808</v>
+        <v>0.0222160556552756</v>
       </c>
       <c r="AE2">
-        <v>0.0237373582755182</v>
+        <v>0.0345969612063393</v>
       </c>
       <c r="AF2">
-        <v>0.0155802173282904</v>
+        <v>0.0211445936001053</v>
       </c>
       <c r="AG2">
-        <v>0.0236286561124043</v>
+        <v>0.0220445381928009</v>
       </c>
       <c r="AH2">
-        <v>0.025451786299298</v>
+        <v>0.0267461215019884</v>
       </c>
       <c r="AI2">
-        <v>0.0230055293515846</v>
+        <v>0.0227626879691949</v>
       </c>
       <c r="AJ2">
-        <v>0.0211132446904946</v>
+        <v>0.0325619792323539</v>
       </c>
       <c r="AK2">
-        <v>0.0234302724502282</v>
+        <v>0.0295057380524486</v>
       </c>
       <c r="AL2">
-        <v>0.0262134976896518</v>
+        <v>0.0205942279057842</v>
       </c>
       <c r="AM2">
-        <v>0.0219845844183532</v>
+        <v>0.0404584182097641</v>
       </c>
       <c r="AN2">
-        <v>0.0190563299680132</v>
+        <v>0.0209383171793567</v>
       </c>
       <c r="AO2">
-        <v>0.0219429242794767</v>
+        <v>0.0233763984077097</v>
       </c>
       <c r="AP2">
-        <v>0.0192673909976221</v>
+        <v>0.0272047754610514</v>
       </c>
       <c r="AQ2">
-        <v>0.0230494396968798</v>
+        <v>0.0224989260031091</v>
       </c>
       <c r="AR2">
-        <v>0.0184275943644609</v>
+        <v>0.0307995710893058</v>
       </c>
       <c r="AS2">
-        <v>0.0157619818049015</v>
+        <v>0.0209214426318429</v>
       </c>
       <c r="AT2">
-        <v>0.0150031149038071</v>
+        <v>0.0160186443988881</v>
       </c>
       <c r="AU2">
-        <v>0.0226574736413174</v>
+        <v>0.0305377593290547</v>
       </c>
       <c r="AV2">
-        <v>0.0232179953454583</v>
+        <v>0.0332828106019424</v>
       </c>
       <c r="AW2">
-        <v>0.0186520198616781</v>
+        <v>0.0171993873790891</v>
       </c>
       <c r="AX2">
-        <v>0.0174269029657278</v>
+        <v>0.0317685937599312</v>
       </c>
       <c r="AY2">
-        <v>0.0240144286501562</v>
+        <v>0.0171111889829317</v>
       </c>
       <c r="AZ2">
-        <v>0.0341216959974399</v>
+        <v>0.0283588794004806</v>
       </c>
       <c r="BA2">
-        <v>0.0357213875525428</v>
+        <v>0.0381509421369004</v>
       </c>
       <c r="BB2">
-        <v>0.028655102630567</v>
+        <v>0.0382103961148273</v>
       </c>
       <c r="BC2">
-        <v>0.0347005614248327</v>
+        <v>0.0332959469799273</v>
       </c>
       <c r="BD2">
-        <v>0.0249829140108388</v>
+        <v>0.0279374117414254</v>
       </c>
       <c r="BE2">
-        <v>0.0342159239368613</v>
+        <v>0.033880498781561</v>
       </c>
       <c r="BF2">
-        <v>0.0324167360996654</v>
+        <v>0.0303076596416368</v>
       </c>
       <c r="BG2">
-        <v>0.025113474125142</v>
+        <v>0.0365991659511719</v>
       </c>
       <c r="BH2">
-        <v>0.0329900711067433</v>
+        <v>0.0254770271516567</v>
       </c>
       <c r="BI2">
-        <v>0.0313660793202191</v>
+        <v>0.0402378879178161</v>
       </c>
       <c r="BJ2">
-        <v>0.0284836082040629</v>
+        <v>0.0254607324411737</v>
       </c>
       <c r="BK2">
-        <v>0.0253704672816065</v>
+        <v>0.0253950361469529</v>
       </c>
       <c r="BL2">
-        <v>0.0327369515380484</v>
+        <v>0.032580520348661</v>
       </c>
       <c r="BM2">
-        <v>0.030861341912135</v>
+        <v>0.0233600673194411</v>
       </c>
       <c r="BN2">
-        <v>0.0325327307956161</v>
+        <v>0.0305771682633847</v>
       </c>
       <c r="BO2">
-        <v>0.0297695551894455</v>
+        <v>0.0277499316635279</v>
       </c>
       <c r="BP2">
-        <v>0.0413086931875286</v>
+        <v>0.0236667304186634</v>
       </c>
       <c r="BQ2">
-        <v>0.0347384423689762</v>
+        <v>0.0267996212772648</v>
       </c>
       <c r="BR2">
-        <v>0.0318080226816659</v>
+        <v>0.0282712843850255</v>
       </c>
       <c r="BS2">
-        <v>0.0336607157580682</v>
+        <v>0.0290673287124429</v>
       </c>
       <c r="BT2">
-        <v>0.0386462457743301</v>
+        <v>0.0339048117464382</v>
       </c>
       <c r="BU2">
-        <v>0.0295406224792201</v>
+        <v>0.0226317141424094</v>
       </c>
       <c r="BV2">
-        <v>0.0236529000433617</v>
+        <v>0.0327248411008096</v>
       </c>
       <c r="BW2">
-        <v>0.0285349055937085</v>
+        <v>0.0307069365809904</v>
       </c>
       <c r="BX2">
-        <v>0.0233195729551227</v>
+        <v>0.0293810328891771</v>
       </c>
       <c r="BY2">
-        <v>0.0221296163083016</v>
+        <v>0.0300194360361779</v>
       </c>
       <c r="BZ2">
-        <v>0.0195292287266533</v>
+        <v>0.0299068774337656</v>
       </c>
       <c r="CA2">
-        <v>0.0298360145828317</v>
+        <v>0.0228852809840078</v>
       </c>
       <c r="CB2">
-        <v>0.0293540096673559</v>
+        <v>0.0273579152486208</v>
       </c>
       <c r="CC2">
-        <v>0.0434602676968694</v>
+        <v>0.0232241257817063</v>
       </c>
       <c r="CD2">
-        <v>0.0233093420166215</v>
+        <v>0.0252866856106191</v>
       </c>
       <c r="CE2">
-        <v>0.0172750939216244</v>
+        <v>0.0301201110755809</v>
       </c>
       <c r="CF2">
-        <v>0.0366080785674674</v>
+        <v>0.0224135560986662</v>
       </c>
       <c r="CG2">
-        <v>0.0312978354872053</v>
+        <v>0.0303162243734269</v>
       </c>
       <c r="CH2">
-        <v>0.0199460263429038</v>
+        <v>0.0352035734173552</v>
       </c>
       <c r="CI2">
-        <v>0.0253072945150618</v>
+        <v>0.0220296739339627</v>
       </c>
       <c r="CJ2">
-        <v>0.0330129130457947</v>
+        <v>0.021850776043209</v>
       </c>
       <c r="CK2">
-        <v>0.0278207918307333</v>
+        <v>0.0407942631937237</v>
       </c>
       <c r="CL2">
-        <v>0.0208489915118027</v>
+        <v>0.0355018313817638</v>
       </c>
       <c r="CM2">
-        <v>0.036344866743358</v>
+        <v>0.029261457404156</v>
       </c>
       <c r="CN2">
-        <v>0.0352249886975713</v>
+        <v>0.0199660952243403</v>
       </c>
       <c r="CO2">
-        <v>0.0240534118040117</v>
+        <v>0.0249357721810183</v>
       </c>
       <c r="CP2">
-        <v>0.0278840399915609</v>
+        <v>0.0302035318843097</v>
       </c>
       <c r="CQ2">
-        <v>0.0238974678958326</v>
+        <v>0.0346036610086057</v>
       </c>
       <c r="CR2">
-        <v>0.02308166902119</v>
+        <v>0.0301036999183456</v>
       </c>
       <c r="CS2">
-        <v>0.0307325400072157</v>
+        <v>0.034639810061213</v>
       </c>
       <c r="CT2">
-        <v>0.0246099905440063</v>
+        <v>0.0389645000792285</v>
       </c>
       <c r="CU2">
-        <v>0.0377452555960588</v>
+        <v>0.0203965523938915</v>
       </c>
       <c r="CV2">
-        <v>0.01778519382658</v>
+        <v>0.0318446658476469</v>
       </c>
       <c r="CW2">
-        <v>0.0289189959944027</v>
+        <v>0.025922793641041</v>
       </c>
     </row>
     <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0.0150653933853932</v>
+      </c>
+      <c r="D3">
+        <v>0.0160937235365386</v>
+      </c>
+      <c r="E3">
         <v>0.0237026555001943</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>0.0352427270171782</v>
+      </c>
+      <c r="I3">
+        <v>0.01881225557308</v>
+      </c>
+      <c r="J3">
         <v>0.0316075825202415</v>
       </c>
-      <c r="D3">
-        <v>0.028117550506422</v>
-      </c>
-      <c r="E3">
-        <v>0.0301994538831571</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.026889374528259</v>
       </c>
-      <c r="G3">
-        <v>0.0198505223640501</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>0.0290062976123092</v>
+      </c>
+      <c r="M3">
+        <v>0.0317033508997924</v>
+      </c>
+      <c r="N3">
         <v>0.0178642977180211</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.0208195163154924</v>
       </c>
-      <c r="L3">
-        <v>0.0284920980276075</v>
-      </c>
-      <c r="N3">
-        <v>0.0225084842912968</v>
-      </c>
       <c r="P3">
-        <v>0.0283773937831287</v>
-      </c>
-      <c r="R3">
-        <v>0.0283995069646497</v>
-      </c>
-      <c r="S3">
-        <v>0.0204797742973918</v>
+        <v>0.0268590403338396</v>
+      </c>
+      <c r="Q3">
+        <v>0.0226770204603503</v>
       </c>
       <c r="T3">
-        <v>0.0208861177758725</v>
+        <v>0.0134862181733321</v>
+      </c>
+      <c r="U3">
+        <v>0.0174249287540212</v>
       </c>
       <c r="V3">
-        <v>0.0149595969660185</v>
-      </c>
-      <c r="X3">
-        <v>0.0352427270171782</v>
+        <v>0.0192724404414623</v>
+      </c>
+      <c r="W3">
+        <v>0.0209834364376345</v>
       </c>
       <c r="Y3">
-        <v>0.028943979953621</v>
+        <v>0.0333174120743727</v>
       </c>
       <c r="Z3">
-        <v>0.01881225557308</v>
-      </c>
-      <c r="AB3">
-        <v>0.0311594889503208</v>
+        <v>0.0304286217438875</v>
+      </c>
+      <c r="AA3">
+        <v>0.0185496959881151</v>
       </c>
       <c r="AC3">
-        <v>0.0288104559948197</v>
+        <v>0.0259106933573267</v>
       </c>
       <c r="AD3">
-        <v>0.0264533046762892</v>
-      </c>
-      <c r="AE3">
-        <v>0.024900985452173</v>
+        <v>0.0182555853336862</v>
       </c>
       <c r="AF3">
-        <v>0.0183033823241577</v>
+        <v>0.0221222553675659</v>
       </c>
       <c r="AG3">
-        <v>0.0195433397841891</v>
-      </c>
-      <c r="AH3">
-        <v>0.0319027739213405</v>
+        <v>0.0148139936690343</v>
       </c>
       <c r="AI3">
-        <v>0.0171241419665733</v>
+        <v>0.014557425777668</v>
       </c>
       <c r="AJ3">
-        <v>0.0178791058361603</v>
+        <v>0.0183793548632094</v>
+      </c>
+      <c r="AK3">
+        <v>0.027576533170742</v>
       </c>
       <c r="AL3">
-        <v>0.0259119790379485</v>
+        <v>0.024641501103441</v>
+      </c>
+      <c r="AM3">
+        <v>0.0303561598867564</v>
       </c>
       <c r="AN3">
-        <v>0.0219099911698402</v>
+        <v>0.0151010725689026</v>
       </c>
       <c r="AO3">
-        <v>0.0255278859793292</v>
+        <v>0.0175413222396235</v>
       </c>
       <c r="AP3">
-        <v>0.0304580762746724</v>
+        <v>0.0292507590456778</v>
       </c>
       <c r="AQ3">
-        <v>0.0273056244431125</v>
+        <v>0.0194369333409469</v>
       </c>
       <c r="AR3">
-        <v>0.0154749842798039</v>
+        <v>0.0250314216495698</v>
       </c>
       <c r="AT3">
-        <v>0.0157576554449187</v>
+        <v>0.0159298945227441</v>
+      </c>
+      <c r="AU3">
+        <v>0.0309854667971992</v>
       </c>
       <c r="AV3">
-        <v>0.0237223841102007</v>
+        <v>0.0260865911906804</v>
       </c>
       <c r="AW3">
-        <v>0.0154801906342478</v>
+        <v>0.0161625416823556</v>
       </c>
       <c r="AX3">
-        <v>0.021246785179104</v>
+        <v>0.0310062988067381</v>
       </c>
       <c r="AY3">
-        <v>0.0277580244820707</v>
-      </c>
-      <c r="AZ3">
-        <v>0.0423793741034481</v>
+        <v>0.0178257840161177</v>
       </c>
       <c r="BA3">
-        <v>0.041719221818528</v>
+        <v>0.0397022362248443</v>
       </c>
       <c r="BB3">
-        <v>0.0315869226645311</v>
+        <v>0.0309666839398347</v>
       </c>
       <c r="BC3">
-        <v>0.0399227835018484</v>
+        <v>0.0417304859849088</v>
       </c>
       <c r="BD3">
-        <v>0.0244195458518816</v>
+        <v>0.0270938468834404</v>
       </c>
       <c r="BE3">
-        <v>0.0312966766954671</v>
+        <v>0.0398007430883003</v>
       </c>
       <c r="BF3">
-        <v>0.0320366729284682</v>
-      </c>
-      <c r="BG3">
-        <v>0.0290643049233626</v>
+        <v>0.0272087729844063</v>
       </c>
       <c r="BH3">
-        <v>0.0320659441215381</v>
+        <v>0.0245334042716154</v>
       </c>
       <c r="BI3">
-        <v>0.0288249782059143</v>
+        <v>0.0492981595457217</v>
       </c>
       <c r="BJ3">
-        <v>0.0277691053040043</v>
+        <v>0.0339004493847816</v>
+      </c>
+      <c r="BK3">
+        <v>0.0294834709714076</v>
       </c>
       <c r="BL3">
-        <v>0.0267387852018234</v>
-      </c>
-      <c r="BM3">
-        <v>0.0326911114330953</v>
+        <v>0.035825123729195</v>
+      </c>
+      <c r="BN3">
+        <v>0.0232658087870054</v>
+      </c>
+      <c r="BO3">
+        <v>0.0271897679647513</v>
+      </c>
+      <c r="BP3">
+        <v>0.0257341116767734</v>
       </c>
       <c r="BQ3">
-        <v>0.0333145286136115</v>
+        <v>0.0302045751265458</v>
       </c>
       <c r="BR3">
-        <v>0.0351953929169189</v>
+        <v>0.0272823799013607</v>
       </c>
       <c r="BS3">
-        <v>0.0433296728426543</v>
+        <v>0.036732962438124</v>
       </c>
       <c r="BT3">
-        <v>0.0369633014944225</v>
+        <v>0.0271265993644737</v>
       </c>
       <c r="BU3">
-        <v>0.0354130910178039</v>
+        <v>0.0275629326119199</v>
       </c>
       <c r="BV3">
-        <v>0.028158122727114</v>
+        <v>0.0383302918477156</v>
       </c>
       <c r="BW3">
-        <v>0.0277783297079243</v>
+        <v>0.0310813957420904</v>
       </c>
       <c r="BX3">
-        <v>0.0283817330973659</v>
-      </c>
-      <c r="CA3">
-        <v>0.03119990222975</v>
+        <v>0.0327507016147551</v>
+      </c>
+      <c r="BY3">
+        <v>0.0248817027422546</v>
+      </c>
+      <c r="BZ3">
+        <v>0.0270687474579516</v>
       </c>
       <c r="CB3">
-        <v>0.0299775975508565</v>
+        <v>0.0293295328824013</v>
+      </c>
+      <c r="CC3">
+        <v>0.0286458624489443</v>
       </c>
       <c r="CD3">
-        <v>0.0231322630130056</v>
+        <v>0.0253997850731398</v>
       </c>
       <c r="CE3">
-        <v>0.0169253282445123</v>
+        <v>0.0338906018711025</v>
       </c>
       <c r="CF3">
-        <v>0.0283764317892738</v>
+        <v>0.0235786729105034</v>
+      </c>
+      <c r="CG3">
+        <v>0.0309551759258624</v>
       </c>
       <c r="CH3">
-        <v>0.0222640266469777</v>
+        <v>0.0318784289244185</v>
+      </c>
+      <c r="CI3">
+        <v>0.0308028682051107</v>
       </c>
       <c r="CK3">
-        <v>0.0292491111842883</v>
+        <v>0.0348427748838037</v>
+      </c>
+      <c r="CL3">
+        <v>0.0314483146847978</v>
       </c>
       <c r="CM3">
-        <v>0.0286808639303798</v>
+        <v>0.0296932824253331</v>
       </c>
       <c r="CN3">
-        <v>0.0313912580589284</v>
+        <v>0.0236879034302728</v>
+      </c>
+      <c r="CO3">
+        <v>0.0247740999695703</v>
       </c>
       <c r="CP3">
-        <v>0.0275170378010867</v>
+        <v>0.0290329151877529</v>
+      </c>
+      <c r="CQ3">
+        <v>0.0284103762593145</v>
+      </c>
+      <c r="CR3">
+        <v>0.0308528601766531</v>
       </c>
       <c r="CS3">
-        <v>0.0321118015137051</v>
+        <v>0.030190727445878</v>
+      </c>
+      <c r="CT3">
+        <v>0.0308814748385408</v>
+      </c>
+      <c r="CU3">
+        <v>0.0215930073075263</v>
+      </c>
+      <c r="CV3">
+        <v>0.0268940842402417</v>
+      </c>
+      <c r="CW3">
+        <v>0.0219146761906686</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.0353650798322246</v>
+      </c>
       <c r="C4">
+        <v>0.0172589770670706</v>
+      </c>
+      <c r="D4">
+        <v>0.0182104115491428</v>
+      </c>
+      <c r="E4">
+        <v>0.0261159158754513</v>
+      </c>
+      <c r="H4">
+        <v>0.0355291548729672</v>
+      </c>
+      <c r="I4">
+        <v>0.0192098029557397</v>
+      </c>
+      <c r="J4">
         <v>0.0322584471813964</v>
       </c>
-      <c r="D4">
-        <v>0.0310322950833287</v>
-      </c>
-      <c r="E4">
-        <v>0.0303807453931172</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.0306696159380968</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>0.0289011256178847</v>
+      </c>
+      <c r="M4">
+        <v>0.0316758142424095</v>
+      </c>
+      <c r="N4">
         <v>0.0185499269219603</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.0260261061640549</v>
       </c>
-      <c r="L4">
-        <v>0.0296230311364409</v>
-      </c>
-      <c r="N4">
-        <v>0.0220412913949002</v>
+      <c r="P4">
+        <v>0.0289587750419764</v>
       </c>
       <c r="Q4">
-        <v>0.037510746083663</v>
-      </c>
-      <c r="R4">
-        <v>0.0307451173999147</v>
-      </c>
-      <c r="S4">
-        <v>0.025103401543482</v>
+        <v>0.022170459103432</v>
       </c>
       <c r="T4">
-        <v>0.0227999929449119</v>
+        <v>0.0144236073053671</v>
+      </c>
+      <c r="U4">
+        <v>0.0189997400920636</v>
       </c>
       <c r="V4">
-        <v>0.016591867943548</v>
+        <v>0.0226227418646013</v>
       </c>
       <c r="W4">
-        <v>0.0361746735861981</v>
-      </c>
-      <c r="X4">
-        <v>0.0355291548729672</v>
-      </c>
-      <c r="Y4">
-        <v>0.0279281199986162</v>
+        <v>0.0248445413875947</v>
+      </c>
+      <c r="Z4">
+        <v>0.0306689658062054</v>
+      </c>
+      <c r="AA4">
+        <v>0.0182199841561097</v>
       </c>
       <c r="AC4">
-        <v>0.0246904964443075</v>
-      </c>
-      <c r="AE4">
-        <v>0.0247698301843335</v>
+        <v>0.0305904442931154</v>
+      </c>
+      <c r="AD4">
+        <v>0.0219275565613882</v>
       </c>
       <c r="AF4">
-        <v>0.0181957903700703</v>
-      </c>
-      <c r="AH4">
-        <v>0.0356869229878985</v>
+        <v>0.0226565970954118</v>
+      </c>
+      <c r="AG4">
+        <v>0.0149292235167372</v>
       </c>
       <c r="AI4">
-        <v>0.0168858239355427</v>
+        <v>0.0157839593793254</v>
       </c>
       <c r="AJ4">
-        <v>0.0204498945630796</v>
+        <v>0.020596337551378</v>
+      </c>
+      <c r="AK4">
+        <v>0.0257870053043012</v>
       </c>
       <c r="AL4">
-        <v>0.0240227350884939</v>
+        <v>0.0272253445664859</v>
+      </c>
+      <c r="AM4">
+        <v>0.032203543904955</v>
+      </c>
+      <c r="AN4">
+        <v>0.0166998260012893</v>
       </c>
       <c r="AO4">
-        <v>0.0261411968243479</v>
+        <v>0.0202242802500559</v>
       </c>
       <c r="AP4">
-        <v>0.0293402253985367</v>
+        <v>0.0320095482252165</v>
       </c>
       <c r="AQ4">
-        <v>0.029612967458425</v>
+        <v>0.0225083263319602</v>
       </c>
       <c r="AR4">
-        <v>0.0149864274989811</v>
-      </c>
-      <c r="AS4">
-        <v>0.0218399568964702</v>
+        <v>0.0257730525496328</v>
       </c>
       <c r="AT4">
-        <v>0.0165361122672459</v>
+        <v>0.016502204285812</v>
+      </c>
+      <c r="AU4">
+        <v>0.0288713312685682</v>
       </c>
       <c r="AV4">
-        <v>0.0252581130451952</v>
+        <v>0.026794864322057</v>
       </c>
       <c r="AW4">
-        <v>0.0177434101235329</v>
+        <v>0.0192854690745164</v>
       </c>
       <c r="AX4">
-        <v>0.0206070450378236</v>
+        <v>0.0307300567149897</v>
+      </c>
+      <c r="AY4">
+        <v>0.0215761052634961</v>
       </c>
       <c r="AZ4">
-        <v>0.0407588324552647</v>
+        <v>0.0261460101994651</v>
       </c>
       <c r="BA4">
-        <v>0.042323051365051</v>
+        <v>0.0404737560919544</v>
       </c>
       <c r="BB4">
-        <v>0.0321602652165987</v>
+        <v>0.0343935688716187</v>
       </c>
       <c r="BC4">
-        <v>0.0412621513844994</v>
+        <v>0.0423962550018294</v>
       </c>
       <c r="BD4">
-        <v>0.0281522471861324</v>
+        <v>0.028216046291293</v>
       </c>
       <c r="BE4">
-        <v>0.0346941984895731</v>
+        <v>0.0404295981498339</v>
       </c>
       <c r="BF4">
-        <v>0.0310443816329392</v>
-      </c>
-      <c r="BG4">
-        <v>0.0306240284938111</v>
+        <v>0.0304116565124987</v>
       </c>
       <c r="BH4">
-        <v>0.0343467825701319</v>
+        <v>0.0281320677143305</v>
       </c>
       <c r="BI4">
-        <v>0.0303460097540335</v>
+        <v>0.0472493710402624</v>
       </c>
       <c r="BJ4">
-        <v>0.0315264121751971</v>
+        <v>0.0328582638766552</v>
+      </c>
+      <c r="BK4">
+        <v>0.0319954227554916</v>
       </c>
       <c r="BL4">
-        <v>0.028999561830164</v>
+        <v>0.0350310656917417</v>
       </c>
       <c r="BM4">
-        <v>0.0325323109806228</v>
+        <v>0.0278007644495536</v>
       </c>
       <c r="BN4">
-        <v>0.0369227970602825</v>
+        <v>0.0279017763682024</v>
       </c>
       <c r="BO4">
-        <v>0.03747029328372</v>
+        <v>0.03214805424723</v>
+      </c>
+      <c r="BP4">
+        <v>0.0298866553284096</v>
+      </c>
+      <c r="BQ4">
+        <v>0.033260286404801</v>
       </c>
       <c r="BR4">
-        <v>0.0357944803308688</v>
+        <v>0.0307790088880589</v>
       </c>
       <c r="BS4">
-        <v>0.0427355089832103</v>
+        <v>0.0360718377754254</v>
+      </c>
+      <c r="BT4">
+        <v>0.0289103446710605</v>
       </c>
       <c r="BU4">
-        <v>0.0336814107203012</v>
+        <v>0.0305169874499156</v>
+      </c>
+      <c r="BV4">
+        <v>0.0403806035339596</v>
+      </c>
+      <c r="BW4">
+        <v>0.036107706416099</v>
       </c>
       <c r="BX4">
-        <v>0.0301554819767734</v>
+        <v>0.0311117798315077</v>
       </c>
       <c r="BY4">
-        <v>0.0184010512563213</v>
-      </c>
-      <c r="CA4">
-        <v>0.0338900982320809</v>
+        <v>0.0272998411238288</v>
+      </c>
+      <c r="BZ4">
+        <v>0.030614351801386</v>
+      </c>
+      <c r="CB4">
+        <v>0.0322395322502927</v>
+      </c>
+      <c r="CC4">
+        <v>0.0328228682590692</v>
+      </c>
+      <c r="CD4">
+        <v>0.0304022172169465</v>
       </c>
       <c r="CE4">
-        <v>0.0201069337387993</v>
+        <v>0.0377846014015662</v>
       </c>
       <c r="CF4">
-        <v>0.0310761811735518</v>
+        <v>0.0266596306137472</v>
+      </c>
+      <c r="CG4">
+        <v>0.0330748777359712</v>
       </c>
       <c r="CH4">
-        <v>0.0277684085751566</v>
+        <v>0.035844544962251</v>
       </c>
       <c r="CI4">
-        <v>0.0296422389592281</v>
+        <v>0.0330241612872071</v>
       </c>
       <c r="CK4">
-        <v>0.0319854478282693</v>
+        <v>0.0359804096272232</v>
       </c>
       <c r="CL4">
-        <v>0.0273379472411095</v>
+        <v>0.0349099104223072</v>
       </c>
       <c r="CM4">
-        <v>0.0304084596221326</v>
+        <v>0.0331113884545228</v>
       </c>
       <c r="CN4">
-        <v>0.0355837061119242</v>
+        <v>0.0287616229311811</v>
+      </c>
+      <c r="CO4">
+        <v>0.0299934156292736</v>
       </c>
       <c r="CP4">
-        <v>0.0257155568300959</v>
+        <v>0.0302632683870974</v>
+      </c>
+      <c r="CQ4">
+        <v>0.0276388072096431</v>
+      </c>
+      <c r="CR4">
+        <v>0.0343337302182525</v>
       </c>
       <c r="CS4">
-        <v>0.0356724745660099</v>
+        <v>0.0344732400412091</v>
+      </c>
+      <c r="CT4">
+        <v>0.0410558586062407</v>
       </c>
       <c r="CU4">
-        <v>0.0340779327954118</v>
+        <v>0.0217122384340541</v>
+      </c>
+      <c r="CV4">
+        <v>0.0310995839665314</v>
+      </c>
+      <c r="CW4">
+        <v>0.0209095580752063</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.032598278625406</v>
+      </c>
+      <c r="C5">
+        <v>0.017652005233828</v>
+      </c>
+      <c r="D5">
+        <v>0.0165740371821673</v>
+      </c>
+      <c r="E5">
         <v>0.0278789570473687</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>0.040343590619987</v>
+      </c>
+      <c r="I5">
+        <v>0.0248312955581275</v>
+      </c>
+      <c r="J5">
         <v>0.0321437945096185</v>
       </c>
-      <c r="D5">
-        <v>0.0347518069846543</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.0309583931338321</v>
       </c>
-      <c r="G5">
-        <v>0.0256789306977148</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>0.0311204556723901</v>
+      </c>
+      <c r="M5">
+        <v>0.0336754972839744</v>
+      </c>
+      <c r="N5">
         <v>0.0192711265673844</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>0.0221921822646237</v>
       </c>
-      <c r="N5">
-        <v>0.0241039395272783</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>0.0309326531726677</v>
+      </c>
+      <c r="Q5">
+        <v>0.0242277129769764</v>
+      </c>
+      <c r="R5">
         <v>0.027133292996964</v>
       </c>
-      <c r="S5">
-        <v>0.0253241818018465</v>
-      </c>
-      <c r="T5">
-        <v>0.0211814433697626</v>
+      <c r="U5">
+        <v>0.0224041553080678</v>
       </c>
       <c r="V5">
-        <v>0.0155648582154949</v>
+        <v>0.0246777301796459</v>
       </c>
       <c r="W5">
-        <v>0.033816308102451</v>
-      </c>
-      <c r="X5">
-        <v>0.040343590619987</v>
-      </c>
-      <c r="Y5">
-        <v>0.0323566513137826</v>
+        <v>0.023959090177978</v>
       </c>
       <c r="Z5">
-        <v>0.0248312955581275</v>
-      </c>
-      <c r="AB5">
-        <v>0.035755440451029</v>
+        <v>0.0318306845056317</v>
+      </c>
+      <c r="AA5">
+        <v>0.0198322110498499</v>
       </c>
       <c r="AC5">
-        <v>0.0295311786911356</v>
-      </c>
-      <c r="AD5">
-        <v>0.0252862875155078</v>
-      </c>
-      <c r="AE5">
-        <v>0.0265667676190807</v>
-      </c>
-      <c r="AH5">
-        <v>0.0300618989015122</v>
+        <v>0.0280463930099086</v>
+      </c>
+      <c r="AF5">
+        <v>0.0238434829587568</v>
+      </c>
+      <c r="AG5">
+        <v>0.0177733605610203</v>
       </c>
       <c r="AI5">
-        <v>0.0170846566600818</v>
+        <v>0.0162117723504434</v>
       </c>
       <c r="AJ5">
-        <v>0.0204096486456493</v>
+        <v>0.0214321437039979</v>
+      </c>
+      <c r="AK5">
+        <v>0.0268322582744645</v>
       </c>
       <c r="AL5">
-        <v>0.0253790732976452</v>
-      </c>
-      <c r="AO5">
-        <v>0.026360144251441</v>
+        <v>0.025800219460285</v>
+      </c>
+      <c r="AM5">
+        <v>0.0284044855382843</v>
+      </c>
+      <c r="AN5">
+        <v>0.014887186128297</v>
       </c>
       <c r="AP5">
-        <v>0.0283308149434262</v>
+        <v>0.03184746781644</v>
       </c>
       <c r="AQ5">
-        <v>0.0261128379006652</v>
+        <v>0.0248352668333028</v>
       </c>
       <c r="AR5">
-        <v>0.0139786327909756</v>
+        <v>0.0239786774375274</v>
       </c>
       <c r="AT5">
-        <v>0.0187840657592154</v>
+        <v>0.0169411386024809</v>
+      </c>
+      <c r="AU5">
+        <v>0.035439009193358</v>
       </c>
       <c r="AV5">
-        <v>0.0262437919646616</v>
+        <v>0.0244120839518029</v>
       </c>
       <c r="AW5">
-        <v>0.0185759678548607</v>
+        <v>0.0211560209674047</v>
       </c>
       <c r="AX5">
-        <v>0.0219879867447288</v>
+        <v>0.0341123420648743</v>
       </c>
       <c r="AY5">
-        <v>0.0253015132282063</v>
+        <v>0.0236040196714913</v>
       </c>
       <c r="AZ5">
-        <v>0.0393125868937823</v>
+        <v>0.0237806686288266</v>
       </c>
       <c r="BA5">
-        <v>0.037323299205906</v>
+        <v>0.0400868398539831</v>
       </c>
       <c r="BB5">
-        <v>0.0266084360913604</v>
+        <v>0.0342444874077227</v>
       </c>
       <c r="BC5">
-        <v>0.0348824768027918</v>
+        <v>0.0378066642646931</v>
       </c>
       <c r="BD5">
-        <v>0.024960266924406</v>
+        <v>0.0242849302288012</v>
       </c>
       <c r="BE5">
-        <v>0.0324904520837229</v>
+        <v>0.0363646579909438</v>
       </c>
       <c r="BF5">
-        <v>0.036049792847464</v>
+        <v>0.0280803689803359</v>
+      </c>
+      <c r="BG5">
+        <v>0.0379404994299391</v>
       </c>
       <c r="BH5">
-        <v>0.0351116143375449</v>
+        <v>0.0240514542804132</v>
       </c>
       <c r="BI5">
-        <v>0.0289346107188648</v>
+        <v>0.0413782237057096</v>
       </c>
       <c r="BJ5">
-        <v>0.0273208483292387</v>
+        <v>0.0278888656208238</v>
+      </c>
+      <c r="BK5">
+        <v>0.0288528188666234</v>
       </c>
       <c r="BL5">
-        <v>0.0313327646071952</v>
+        <v>0.0291691707252292</v>
+      </c>
+      <c r="BM5">
+        <v>0.0251922250630928</v>
+      </c>
+      <c r="BN5">
+        <v>0.0230183870690814</v>
+      </c>
+      <c r="BO5">
+        <v>0.0296215007624454</v>
       </c>
       <c r="BP5">
-        <v>0.0321231854275925</v>
+        <v>0.0259942486820791</v>
+      </c>
+      <c r="BQ5">
+        <v>0.0316470892976981</v>
       </c>
       <c r="BR5">
-        <v>0.0288434878185152</v>
+        <v>0.0256862181497136</v>
       </c>
       <c r="BS5">
-        <v>0.0434698231486425</v>
+        <v>0.0320328507427253</v>
+      </c>
+      <c r="BT5">
+        <v>0.0307255742233711</v>
       </c>
       <c r="BU5">
-        <v>0.0299320177160861</v>
+        <v>0.024850654293053</v>
       </c>
       <c r="BV5">
-        <v>0.0278933561348337</v>
+        <v>0.0342462423679869</v>
+      </c>
+      <c r="BW5">
+        <v>0.031456328916266</v>
       </c>
       <c r="BX5">
-        <v>0.0248376908261167</v>
+        <v>0.0288948222268028</v>
       </c>
       <c r="BY5">
-        <v>0.0180055662290054</v>
-      </c>
-      <c r="CA5">
-        <v>0.0287875258267655</v>
+        <v>0.0296759278802968</v>
+      </c>
+      <c r="BZ5">
+        <v>0.0253256687530217</v>
+      </c>
+      <c r="CB5">
+        <v>0.0273317910318579</v>
       </c>
       <c r="CC5">
-        <v>0.040854610097281</v>
+        <v>0.0305174064522795</v>
       </c>
       <c r="CD5">
-        <v>0.0259106254118328</v>
+        <v>0.0245698479798844</v>
       </c>
       <c r="CE5">
-        <v>0.0157588929047527</v>
+        <v>0.0316484147327657</v>
+      </c>
+      <c r="CF5">
+        <v>0.0230053129583828</v>
+      </c>
+      <c r="CG5">
+        <v>0.03255459842273</v>
       </c>
       <c r="CH5">
-        <v>0.0203107278101651</v>
+        <v>0.0348057041474957</v>
+      </c>
+      <c r="CI5">
+        <v>0.0312393543827319</v>
       </c>
       <c r="CK5">
-        <v>0.0310716230892295</v>
+        <v>0.0357989656998161</v>
+      </c>
+      <c r="CL5">
+        <v>0.0327094538795029</v>
       </c>
       <c r="CM5">
-        <v>0.0343202760741564</v>
+        <v>0.0312165520975657</v>
       </c>
       <c r="CN5">
-        <v>0.0348256577745313</v>
+        <v>0.0245044219522181</v>
+      </c>
+      <c r="CO5">
+        <v>0.0266799078911716</v>
       </c>
       <c r="CP5">
-        <v>0.0256032971005391</v>
+        <v>0.0280824243865969</v>
+      </c>
+      <c r="CQ5">
+        <v>0.0286105400303952</v>
+      </c>
+      <c r="CR5">
+        <v>0.032371622737072</v>
       </c>
       <c r="CS5">
-        <v>0.0322321445419359</v>
+        <v>0.0319767015129627</v>
+      </c>
+      <c r="CT5">
+        <v>0.036261425890948</v>
       </c>
       <c r="CU5">
-        <v>0.0375820337160665</v>
+        <v>0.0176471160281848</v>
+      </c>
+      <c r="CV5">
+        <v>0.0324352511420763</v>
       </c>
       <c r="CW5">
-        <v>0.0301656598982463</v>
+        <v>0.01932840666855</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.0246362694419745</v>
+      </c>
+      <c r="D6">
+        <v>0.0133849720387932</v>
+      </c>
+      <c r="E6">
         <v>0.0230115848314585</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>0.039120640579667</v>
+      </c>
+      <c r="H6">
+        <v>0.0347610131492258</v>
+      </c>
+      <c r="I6">
+        <v>0.0263703644560739</v>
+      </c>
+      <c r="J6">
         <v>0.0289731936963501</v>
       </c>
-      <c r="D6">
-        <v>0.0251279101296272</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>0.0336778547403985</v>
       </c>
-      <c r="G6">
+      <c r="L6">
+        <v>0.0298087857194695</v>
+      </c>
+      <c r="M6">
+        <v>0.0309285253213317</v>
+      </c>
+      <c r="N6">
+        <v>0.021719650232287</v>
+      </c>
+      <c r="O6">
+        <v>0.0179998909375815</v>
+      </c>
+      <c r="P6">
+        <v>0.0289124536211593</v>
+      </c>
+      <c r="Q6">
+        <v>0.0163842287633666</v>
+      </c>
+      <c r="V6">
         <v>0.0270409932657106</v>
       </c>
-      <c r="H6">
-        <v>0.021719650232287</v>
-      </c>
-      <c r="I6">
-        <v>0.0179998909375815</v>
-      </c>
-      <c r="J6">
-        <v>0.0288686460018775</v>
-      </c>
-      <c r="M6">
-        <v>0.039120640579667</v>
-      </c>
-      <c r="N6">
-        <v>0.0164160242606516</v>
-      </c>
-      <c r="Q6">
-        <v>0.0383192260764954</v>
-      </c>
-      <c r="S6">
-        <v>0.021864615714379</v>
-      </c>
-      <c r="T6">
-        <v>0.0218828463922527</v>
-      </c>
       <c r="W6">
-        <v>0.0261318493120637</v>
-      </c>
-      <c r="X6">
-        <v>0.0347610131492258</v>
+        <v>0.0154615142544473</v>
       </c>
       <c r="Y6">
-        <v>0.0315515934026975</v>
+        <v>0.0351730855064896</v>
+      </c>
+      <c r="Z6">
+        <v>0.0311646636071339</v>
       </c>
       <c r="AA6">
-        <v>0.0285161761898544</v>
-      </c>
-      <c r="AB6">
-        <v>0.0363564281293649</v>
+        <v>0.0240513294582616</v>
       </c>
       <c r="AC6">
-        <v>0.0313459935927711</v>
+        <v>0.026261509261789</v>
       </c>
       <c r="AD6">
-        <v>0.0267238492339123</v>
+        <v>0.0205144547320301</v>
       </c>
       <c r="AE6">
-        <v>0.0255248499015883</v>
+        <v>0.0335520110295515</v>
+      </c>
+      <c r="AF6">
+        <v>0.0222844732555463</v>
       </c>
       <c r="AG6">
-        <v>0.0230118945740465</v>
+        <v>0.016996554708925</v>
       </c>
       <c r="AH6">
-        <v>0.0304444051367767</v>
+        <v>0.0285935940161932</v>
+      </c>
+      <c r="AI6">
+        <v>0.0159228858049508</v>
       </c>
       <c r="AJ6">
-        <v>0.0188302071374689</v>
+        <v>0.0216953408430042</v>
       </c>
       <c r="AK6">
-        <v>0.0200166998238707</v>
+        <v>0.0284299210094445</v>
+      </c>
+      <c r="AL6">
+        <v>0.0201225929693588</v>
       </c>
       <c r="AM6">
-        <v>0.0227246720935999</v>
+        <v>0.0297529721330216</v>
       </c>
       <c r="AN6">
-        <v>0.0198871768493061</v>
+        <v>0.0163092789283423</v>
       </c>
       <c r="AO6">
-        <v>0.0268989115616809</v>
+        <v>0.0193903291071119</v>
       </c>
       <c r="AP6">
-        <v>0.0263937657202229</v>
+        <v>0.031960108726811</v>
       </c>
       <c r="AQ6">
-        <v>0.0204647318533143</v>
+        <v>0.022313515582265</v>
       </c>
       <c r="AR6">
-        <v>0.0155090641059763</v>
+        <v>0.0265693976575101</v>
+      </c>
+      <c r="AS6">
+        <v>0.0228546395865066</v>
+      </c>
+      <c r="AT6">
+        <v>0.0165087183920024</v>
+      </c>
+      <c r="AU6">
+        <v>0.0318691574493328</v>
       </c>
       <c r="AV6">
-        <v>0.0251230052622074</v>
+        <v>0.0253696166583021</v>
       </c>
       <c r="AW6">
-        <v>0.0300785125779342</v>
+        <v>0.0187310605948354</v>
       </c>
       <c r="AX6">
-        <v>0.0210015552155335</v>
+        <v>0.0334930381049149</v>
+      </c>
+      <c r="AY6">
+        <v>0.0194126115095014</v>
+      </c>
+      <c r="AZ6">
+        <v>0.0274378415656593</v>
       </c>
       <c r="BA6">
-        <v>0.0358620984006313</v>
+        <v>0.0393709706118438</v>
       </c>
       <c r="BB6">
-        <v>0.0285661286785356</v>
+        <v>0.0347474682861704</v>
+      </c>
+      <c r="BC6">
+        <v>0.0370011796115826</v>
       </c>
       <c r="BD6">
-        <v>0.0274269831319944</v>
+        <v>0.026215582881648</v>
       </c>
       <c r="BE6">
-        <v>0.0317726982718899</v>
+        <v>0.0369509370923488</v>
       </c>
       <c r="BF6">
-        <v>0.0349389550030808</v>
+        <v>0.0279597937175757</v>
       </c>
       <c r="BG6">
-        <v>0.0278024532303994</v>
+        <v>0.0357756706933164</v>
+      </c>
+      <c r="BH6">
+        <v>0.0263780790416911</v>
       </c>
       <c r="BI6">
-        <v>0.0291673878511283</v>
+        <v>0.0412980234710731</v>
       </c>
       <c r="BJ6">
-        <v>0.0279303395374957</v>
+        <v>0.0309157888021494</v>
+      </c>
+      <c r="BK6">
+        <v>0.0282708739708845</v>
       </c>
       <c r="BL6">
-        <v>0.0307589524609977</v>
+        <v>0.0298014233331275</v>
+      </c>
+      <c r="BM6">
+        <v>0.0281365263610436</v>
+      </c>
+      <c r="BN6">
+        <v>0.0254028769003493</v>
       </c>
       <c r="BO6">
-        <v>0.0329093205652014</v>
+        <v>0.0324142347367116</v>
+      </c>
+      <c r="BP6">
+        <v>0.0282190370642669</v>
+      </c>
+      <c r="BQ6">
+        <v>0.0347711655013279</v>
       </c>
       <c r="BR6">
-        <v>0.0352598237125495</v>
+        <v>0.0286896936521401</v>
       </c>
       <c r="BS6">
-        <v>0.0450281053423163</v>
+        <v>0.0360846999052101</v>
+      </c>
+      <c r="BT6">
+        <v>0.0319982578641837</v>
       </c>
       <c r="BU6">
-        <v>0.0320657703055109</v>
+        <v>0.0261973672628705</v>
       </c>
       <c r="BV6">
-        <v>0.0295619688498237</v>
+        <v>0.0335690202096783</v>
+      </c>
+      <c r="BW6">
+        <v>0.0314052356314428</v>
       </c>
       <c r="BX6">
-        <v>0.0260602743837652</v>
+        <v>0.0319897347610156</v>
       </c>
       <c r="BY6">
-        <v>0.0172212473882805</v>
+        <v>0.0308954874277815</v>
+      </c>
+      <c r="BZ6">
+        <v>0.0247596637063376</v>
       </c>
       <c r="CA6">
-        <v>0.0309852024212832</v>
+        <v>0.0252607996448766</v>
+      </c>
+      <c r="CB6">
+        <v>0.0313175510606698</v>
       </c>
       <c r="CC6">
-        <v>0.0433592776226065</v>
+        <v>0.0332716797141601</v>
       </c>
       <c r="CD6">
-        <v>0.0229837061085755</v>
+        <v>0.0248211579322955</v>
       </c>
       <c r="CE6">
-        <v>0.0173842376350107</v>
+        <v>0.0347765267717567</v>
       </c>
       <c r="CF6">
-        <v>0.0317912851498953</v>
+        <v>0.0237173014053883</v>
+      </c>
+      <c r="CG6">
+        <v>0.0367763364421407</v>
       </c>
       <c r="CH6">
-        <v>0.0190743358307712</v>
+        <v>0.0354958272168177</v>
       </c>
       <c r="CI6">
-        <v>0.0288385431320136</v>
+        <v>0.0277898149755421</v>
       </c>
       <c r="CJ6">
-        <v>0.0295464904708855</v>
+        <v>0.0278008662277991</v>
       </c>
       <c r="CK6">
-        <v>0.0333503572127026</v>
+        <v>0.0368866399572167</v>
       </c>
       <c r="CL6">
-        <v>0.0273651772574265</v>
+        <v>0.0319470565682204</v>
       </c>
       <c r="CM6">
-        <v>0.0343364993623922</v>
+        <v>0.0348183814972788</v>
       </c>
       <c r="CN6">
-        <v>0.0354964397948653</v>
+        <v>0.0258636070692149</v>
+      </c>
+      <c r="CO6">
+        <v>0.0249603207996557</v>
       </c>
       <c r="CP6">
-        <v>0.0312434419541402</v>
+        <v>0.032168862191558</v>
       </c>
       <c r="CQ6">
-        <v>0.0247165293409777</v>
+        <v>0.0298516027758319</v>
+      </c>
+      <c r="CR6">
+        <v>0.0317395632578759</v>
       </c>
       <c r="CS6">
-        <v>0.0324709131208235</v>
+        <v>0.0324503840625235</v>
       </c>
       <c r="CT6">
-        <v>0.0256227664834784</v>
+        <v>0.0381997109998668</v>
+      </c>
+      <c r="CU6">
+        <v>0.0219686015150064</v>
+      </c>
+      <c r="CV6">
+        <v>0.0338293375021944</v>
+      </c>
+      <c r="CW6">
+        <v>0.0206629999694426</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0.0184354205706393</v>
+      </c>
+      <c r="D7">
+        <v>0.0180608734227942</v>
+      </c>
+      <c r="E7">
         <v>0.0275244368595192</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>0.0390660739591606</v>
+      </c>
+      <c r="H7">
+        <v>0.0407946113661156</v>
+      </c>
+      <c r="J7">
         <v>0.0352514957239832</v>
       </c>
-      <c r="D7">
-        <v>0.0340165671199067</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.0326044796224442</v>
       </c>
-      <c r="G7">
-        <v>0.0317415247851136</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>0.0339953408335859</v>
+      </c>
+      <c r="M7">
+        <v>0.03350199387593</v>
+      </c>
+      <c r="N7">
         <v>0.0209466056337546</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.0256297037337675</v>
       </c>
-      <c r="L7">
-        <v>0.0358244704230283</v>
-      </c>
-      <c r="N7">
-        <v>0.0287853977133464</v>
-      </c>
-      <c r="R7">
-        <v>0.0324452858791484</v>
+      <c r="P7">
+        <v>0.0311896471385009</v>
+      </c>
+      <c r="Q7">
+        <v>0.0288351740071348</v>
       </c>
       <c r="T7">
-        <v>0.0285301677970487</v>
+        <v>0.0141197512732952</v>
+      </c>
+      <c r="U7">
+        <v>0.0237368876508922</v>
       </c>
       <c r="V7">
-        <v>0.017078679497058</v>
-      </c>
-      <c r="X7">
-        <v>0.0407946113661156</v>
+        <v>0.0306525406298937</v>
+      </c>
+      <c r="W7">
+        <v>0.0267670404061126</v>
       </c>
       <c r="Y7">
-        <v>0.0315678839288004</v>
+        <v>0.0378749417458778</v>
       </c>
       <c r="Z7">
-        <v>0.0289740416449096</v>
+        <v>0.0315769183281178</v>
       </c>
       <c r="AA7">
-        <v>0.0365488748371301</v>
+        <v>0.0188005042907102</v>
       </c>
       <c r="AC7">
-        <v>0.0281676362506578</v>
-      </c>
-      <c r="AD7">
-        <v>0.0262475641614228</v>
+        <v>0.0309809509710172</v>
       </c>
       <c r="AE7">
-        <v>0.029005854562854</v>
+        <v>0.0360706678972917</v>
+      </c>
+      <c r="AF7">
+        <v>0.022819034917783</v>
+      </c>
+      <c r="AG7">
+        <v>0.0198102219116705</v>
       </c>
       <c r="AH7">
-        <v>0.0302164033543193</v>
+        <v>0.0363574168845743</v>
       </c>
       <c r="AI7">
-        <v>0.0251480043612791</v>
+        <v>0.025016082644311</v>
       </c>
       <c r="AJ7">
-        <v>0.0196132874946448</v>
+        <v>0.0261568356999403</v>
       </c>
       <c r="AK7">
-        <v>0.0235215207919442</v>
+        <v>0.0308924071209991</v>
       </c>
       <c r="AL7">
-        <v>0.0286663495439268</v>
+        <v>0.0245289416818316</v>
       </c>
       <c r="AM7">
-        <v>0.0320269608124246</v>
+        <v>0.0373069747701882</v>
       </c>
       <c r="AO7">
-        <v>0.0326175610994279</v>
+        <v>0.0223132470327515</v>
       </c>
       <c r="AP7">
-        <v>0.0262942102673545</v>
+        <v>0.0340972106399692</v>
       </c>
       <c r="AQ7">
-        <v>0.0260358332434217</v>
+        <v>0.0227543831480458</v>
       </c>
       <c r="AR7">
-        <v>0.0175252842517563</v>
+        <v>0.0254907079555156</v>
+      </c>
+      <c r="AS7">
+        <v>0.0308465030450554</v>
       </c>
       <c r="AT7">
-        <v>0.0165089418460596</v>
+        <v>0.0184376397066855</v>
+      </c>
+      <c r="AU7">
+        <v>0.0362301254764842</v>
       </c>
       <c r="AV7">
-        <v>0.0236972040148792</v>
+        <v>0.0319304168763776</v>
       </c>
       <c r="AW7">
-        <v>0.0242091762485016</v>
+        <v>0.0199288818008857</v>
       </c>
       <c r="AX7">
-        <v>0.0303376148375425</v>
+        <v>0.0328143648518564</v>
+      </c>
+      <c r="AY7">
+        <v>0.0224810910987658</v>
       </c>
       <c r="AZ7">
-        <v>0.0424829276978958</v>
+        <v>0.0293513544676932</v>
       </c>
       <c r="BA7">
-        <v>0.0428483775301875</v>
+        <v>0.0410706651479313</v>
       </c>
       <c r="BB7">
-        <v>0.0333502011849237</v>
+        <v>0.0378331464596839</v>
       </c>
       <c r="BC7">
-        <v>0.0402603516793985</v>
+        <v>0.0424483880493267</v>
+      </c>
+      <c r="BD7">
+        <v>0.0296850955219842</v>
       </c>
       <c r="BE7">
-        <v>0.0352269832248311</v>
+        <v>0.0399989221941146</v>
       </c>
       <c r="BF7">
-        <v>0.0368256152257432</v>
+        <v>0.0323683495592257</v>
       </c>
       <c r="BG7">
-        <v>0.0316256450077015</v>
+        <v>0.0445928895139634</v>
+      </c>
+      <c r="BH7">
+        <v>0.0289405675723767</v>
       </c>
       <c r="BI7">
-        <v>0.0335201989562091</v>
+        <v>0.0459091974344941</v>
       </c>
       <c r="BJ7">
-        <v>0.0307795256026241</v>
+        <v>0.0313389573125006</v>
+      </c>
+      <c r="BK7">
+        <v>0.0298559040142673</v>
       </c>
       <c r="BL7">
-        <v>0.0270967623934294</v>
+        <v>0.0361429587512493</v>
       </c>
       <c r="BM7">
-        <v>0.034706791047579</v>
+        <v>0.0334963014067287</v>
+      </c>
+      <c r="BN7">
+        <v>0.0273337151100047</v>
+      </c>
+      <c r="BO7">
+        <v>0.0287094680640225</v>
+      </c>
+      <c r="BP7">
+        <v>0.0320912903613709</v>
+      </c>
+      <c r="BQ7">
+        <v>0.0355389203384689</v>
       </c>
       <c r="BR7">
-        <v>0.0320195885833098</v>
+        <v>0.0295035388945406</v>
       </c>
       <c r="BS7">
-        <v>0.046955669414799</v>
+        <v>0.0336047416064375</v>
       </c>
       <c r="BT7">
-        <v>0.0415974541549256</v>
+        <v>0.0243146856819349</v>
       </c>
       <c r="BU7">
-        <v>0.0338715628298109</v>
+        <v>0.0263531593251679</v>
       </c>
       <c r="BV7">
-        <v>0.033601854836717</v>
+        <v>0.0394726959764608</v>
       </c>
       <c r="BW7">
-        <v>0.0300236908766665</v>
+        <v>0.0372724751973949</v>
       </c>
       <c r="BX7">
-        <v>0.0286120582428652</v>
-      </c>
-      <c r="CA7">
-        <v>0.0321701948173272</v>
+        <v>0.0308008427313828</v>
+      </c>
+      <c r="BY7">
+        <v>0.0296073485289457</v>
+      </c>
+      <c r="BZ7">
+        <v>0.0329167179348185</v>
       </c>
       <c r="CB7">
-        <v>0.0343862892432475</v>
+        <v>0.031550083496662</v>
       </c>
       <c r="CC7">
-        <v>0.0416123502651928</v>
+        <v>0.0379687749759006</v>
       </c>
       <c r="CD7">
-        <v>0.0268558330112357</v>
+        <v>0.0292584609267723</v>
       </c>
       <c r="CE7">
-        <v>0.0204659743748445</v>
+        <v>0.0379716757170589</v>
       </c>
       <c r="CF7">
-        <v>0.0334531036178312</v>
+        <v>0.0258893991560896</v>
       </c>
       <c r="CG7">
-        <v>0.0365844037362991</v>
+        <v>0.0376426668845164</v>
       </c>
       <c r="CH7">
-        <v>0.0243669218107891</v>
-      </c>
-      <c r="CJ7">
-        <v>0.0316476967170824</v>
+        <v>0.0382056730375258</v>
+      </c>
+      <c r="CI7">
+        <v>0.0385646233908686</v>
       </c>
       <c r="CK7">
-        <v>0.0357078221439607</v>
+        <v>0.0404613273196403</v>
+      </c>
+      <c r="CL7">
+        <v>0.0373289404650544</v>
       </c>
       <c r="CM7">
-        <v>0.0373673727817095</v>
+        <v>0.0318076545956375</v>
       </c>
       <c r="CN7">
-        <v>0.0374708864129934</v>
+        <v>0.0284068796333126</v>
+      </c>
+      <c r="CO7">
+        <v>0.0267660326326257</v>
       </c>
       <c r="CP7">
-        <v>0.0280474380248516</v>
+        <v>0.0323198586175613</v>
       </c>
       <c r="CQ7">
-        <v>0.0273321763162969</v>
+        <v>0.0343442697957277</v>
+      </c>
+      <c r="CR7">
+        <v>0.0335245441667</v>
       </c>
       <c r="CS7">
-        <v>0.0341016910919378</v>
+        <v>0.035023026018245</v>
+      </c>
+      <c r="CT7">
+        <v>0.0399523977922239</v>
+      </c>
+      <c r="CU7">
+        <v>0.0218570003054984</v>
+      </c>
+      <c r="CV7">
+        <v>0.035425527219774</v>
       </c>
       <c r="CW7">
-        <v>0.0359901798908757</v>
+        <v>0.0224913073146568</v>
       </c>
     </row>
   </sheetData>
